--- a/results_dhs.xlsx
+++ b/results_dhs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Biraj\Desktop\gis_dhs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1087B8-4D4A-4DC7-97B5-FCA55B173E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5B0572-EAA7-4778-95B4-1BCE29C30B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19430" windowHeight="10500" xr2:uid="{EBE00F81-46BE-478C-943D-23887999EF45}"/>
   </bookViews>

--- a/results_dhs.xlsx
+++ b/results_dhs.xlsx
@@ -8,21 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Biraj\Desktop\gis_dhs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5B0572-EAA7-4778-95B4-1BCE29C30B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86F1D19-6FDF-4E56-BC79-D706BD46D984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19430" windowHeight="10500" xr2:uid="{EBE00F81-46BE-478C-943D-23887999EF45}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="4" xr2:uid="{EBE00F81-46BE-478C-943D-23887999EF45}"/>
   </bookViews>
   <sheets>
     <sheet name="tab1edited" sheetId="1" r:id="rId1"/>
     <sheet name="bmi_model" sheetId="2" r:id="rId2"/>
     <sheet name="htn_model" sheetId="3" r:id="rId3"/>
+    <sheet name="spatial_cluster_bp" sheetId="4" r:id="rId4"/>
+    <sheet name="spatial_cluster_bmi" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_Hlk53060402" localSheetId="3">spatial_cluster_bp!$E$4</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="164">
   <si>
     <t>S.N</t>
   </si>
@@ -421,13 +426,106 @@
   </si>
   <si>
     <t>Height (mtr)</t>
+  </si>
+  <si>
+    <t>spplimentery table</t>
+  </si>
+  <si>
+    <t>Clusters</t>
+  </si>
+  <si>
+    <t>Radius (km)</t>
+  </si>
+  <si>
+    <t>Number of Locations</t>
+  </si>
+  <si>
+    <t>Overlap With Clusters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population </t>
+  </si>
+  <si>
+    <t>Observed Cases</t>
+  </si>
+  <si>
+    <t>Expected Cases</t>
+  </si>
+  <si>
+    <t>Relative Risk</t>
+  </si>
+  <si>
+    <t>Percent cases in the area</t>
+  </si>
+  <si>
+    <t>Log-Likelihood Ratio</t>
+  </si>
+  <si>
+    <t>P-Value</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>4, 9</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>6, 11, 23</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table 1. Spatial clusters of cases with high or Normal blood pressure in Nepal, 2022 </t>
+  </si>
+  <si>
+    <t>4, 5</t>
+  </si>
+  <si>
+    <t>3, 9</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table 1. Spatial clusters of cases with high or Normal BMI in Nepal, 2022 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -594,8 +692,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -787,8 +892,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -944,6 +1055,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -989,31 +1137,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1021,10 +1151,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1037,18 +1164,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1056,11 +1171,76 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1438,7 +1618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7BB526C-0785-4A68-B5A4-00BD80E1E074}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -1450,24 +1630,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="16" t="s">
+      <c r="A1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
@@ -1476,7 +1656,7 @@
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="15">
         <v>43371</v>
       </c>
       <c r="D3" s="3">
@@ -1490,7 +1670,7 @@
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="15">
         <v>92864</v>
       </c>
       <c r="D4" s="3">
@@ -1499,11 +1679,11 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
@@ -1512,7 +1692,7 @@
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="15">
         <v>82186</v>
       </c>
       <c r="D6" s="3">
@@ -1526,7 +1706,7 @@
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="15">
         <v>36702</v>
       </c>
       <c r="D7" s="3">
@@ -1540,7 +1720,7 @@
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="15">
         <v>17347</v>
       </c>
       <c r="D8" s="3">
@@ -1549,11 +1729,11 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
@@ -1562,7 +1742,7 @@
       <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="15">
         <v>9338</v>
       </c>
       <c r="D10" s="3">
@@ -1576,7 +1756,7 @@
       <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="15">
         <v>99732</v>
       </c>
       <c r="D11" s="3">
@@ -1590,7 +1770,7 @@
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="15">
         <v>27166</v>
       </c>
       <c r="D12" s="3">
@@ -1599,11 +1779,11 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
@@ -1612,7 +1792,7 @@
       <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="15">
         <v>40070</v>
       </c>
       <c r="D14" s="3">
@@ -1626,7 +1806,7 @@
       <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="15">
         <v>42722</v>
       </c>
       <c r="D15" s="3">
@@ -1640,7 +1820,7 @@
       <c r="B16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="15">
         <v>53443</v>
       </c>
       <c r="D16" s="3">
@@ -1649,11 +1829,11 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
@@ -1662,7 +1842,7 @@
       <c r="B18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="15">
         <v>44500</v>
       </c>
       <c r="D18" s="3">
@@ -1676,7 +1856,7 @@
       <c r="B19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="15">
         <v>91736</v>
       </c>
       <c r="D19" s="3">
@@ -1685,11 +1865,11 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
@@ -1698,7 +1878,7 @@
       <c r="B21" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="15">
         <v>7462</v>
       </c>
       <c r="D21" s="3">
@@ -1712,7 +1892,7 @@
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="27">
+      <c r="C22" s="15">
         <v>55462</v>
       </c>
       <c r="D22" s="3">
@@ -1726,7 +1906,7 @@
       <c r="B23" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="15">
         <v>73312</v>
       </c>
       <c r="D23" s="3">
@@ -1735,11 +1915,11 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
@@ -1748,7 +1928,7 @@
       <c r="B25" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="27">
+      <c r="C25" s="15">
         <v>52345</v>
       </c>
       <c r="D25" s="3">
@@ -1762,7 +1942,7 @@
       <c r="B26" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="27">
+      <c r="C26" s="15">
         <v>26737</v>
       </c>
       <c r="D26" s="3">
@@ -1776,7 +1956,7 @@
       <c r="B27" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="27">
+      <c r="C27" s="15">
         <v>57154</v>
       </c>
       <c r="D27" s="3">
@@ -1785,11 +1965,11 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
@@ -1798,7 +1978,7 @@
       <c r="B29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="27">
+      <c r="C29" s="15">
         <v>62059</v>
       </c>
       <c r="D29" s="3">
@@ -1812,7 +1992,7 @@
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="27">
+      <c r="C30" s="15">
         <v>38915</v>
       </c>
       <c r="D30" s="3">
@@ -1821,11 +2001,11 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
@@ -1834,7 +2014,7 @@
       <c r="B32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="27">
+      <c r="C32" s="15">
         <v>78148</v>
       </c>
       <c r="D32" s="3">
@@ -1851,7 +2031,7 @@
       <c r="B33" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="27">
+      <c r="C33" s="15">
         <v>57763</v>
       </c>
       <c r="D33" s="3">
@@ -1863,11 +2043,11 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="16" t="s">
+      <c r="B34" s="7"/>
+      <c r="C34" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="9" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1878,10 +2058,10 @@
       <c r="B35" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="27">
+      <c r="C35" s="15">
         <v>13540</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1892,10 +2072,10 @@
       <c r="B36" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="27">
+      <c r="C36" s="15">
         <v>10022</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="10" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1906,10 +2086,10 @@
       <c r="B37" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="27">
+      <c r="C37" s="15">
         <v>10022</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="10" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1920,10 +2100,10 @@
       <c r="B38" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="27">
+      <c r="C38" s="15">
         <v>13508</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1934,10 +2114,10 @@
       <c r="B39" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C39" s="27">
+      <c r="C39" s="15">
         <v>13510</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="D39" s="10" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1948,10 +2128,10 @@
       <c r="B40" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="27">
+      <c r="C40" s="15">
         <v>13523</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="10" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1977,198 +2157,198 @@
   <dimension ref="C4:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="8.7265625" style="1"/>
     <col min="3" max="3" width="33.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="22" customWidth="1"/>
+    <col min="4" max="4" width="21.453125" style="24" customWidth="1"/>
+    <col min="5" max="5" width="25.26953125" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="26" customWidth="1"/>
     <col min="7" max="7" width="21" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6328125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="11.6328125" style="11" customWidth="1"/>
     <col min="9" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="32"/>
+      <c r="E4" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="9" t="s">
+      <c r="F4" s="30"/>
+      <c r="G4" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="10"/>
+      <c r="H4" s="32"/>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="16">
         <v>-3.2690299999999999</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="16">
         <v>-0.37877</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
     </row>
     <row r="8" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="18"/>
+      <c r="E8" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="20">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="16">
         <v>-0.50236999999999998</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
     </row>
     <row r="11" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
+      <c r="D11" s="19"/>
+      <c r="E11" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="21" t="s">
         <v>73</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="H11" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" ht="18" x14ac:dyDescent="0.4">
       <c r="C12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="19"/>
+      <c r="E12" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="22">
         <v>0.41</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="6">
         <v>1E-3</v>
       </c>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C14" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="16">
         <v>-1.41639</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
     </row>
     <row r="15" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
+      <c r="D15" s="19"/>
+      <c r="E15" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="23" t="s">
         <v>73</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="6" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2176,58 +2356,58 @@
       <c r="C16" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="23" t="s">
         <v>73</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="16">
         <v>-0.50973000000000002</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
     </row>
     <row r="19" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C19" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3" t="s">
+      <c r="D19" s="19"/>
+      <c r="E19" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="23" t="s">
         <v>73</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="6" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2235,59 +2415,59 @@
       <c r="C20" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3" t="s">
+      <c r="D20" s="19"/>
+      <c r="E20" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="23" t="s">
         <v>73</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="16">
         <v>-0.88465000000000005</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
     </row>
     <row r="23" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C23" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3" t="s">
+      <c r="D23" s="19"/>
+      <c r="E23" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="23" t="s">
         <v>73</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="H23" s="6" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2295,140 +2475,142 @@
       <c r="C24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3" t="s">
+      <c r="D24" s="19"/>
+      <c r="E24" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="23" t="s">
         <v>73</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H24" s="12" t="s">
+      <c r="H24" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C26" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="16">
         <v>-0.71514999999999995</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
     </row>
     <row r="27" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C27" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3" t="s">
+      <c r="D27" s="19"/>
+      <c r="E27" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F27" s="4"/>
+      <c r="F27" s="23" t="s">
+        <v>73</v>
+      </c>
       <c r="G27" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H27" s="12" t="s">
+      <c r="H27" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C29" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="16">
         <v>-0.15159</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
     </row>
     <row r="30" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C30" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3" t="s">
+      <c r="D30" s="19"/>
+      <c r="E30" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="F30" s="21" t="s">
+      <c r="F30" s="23" t="s">
         <v>73</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H30" s="6">
         <v>1.2E-2</v>
       </c>
     </row>
     <row r="31" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
     </row>
     <row r="32" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C32" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="16">
         <v>-0.46365000000000001</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+    </row>
+    <row r="33" spans="3:8" ht="18" x14ac:dyDescent="0.4">
       <c r="C33" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F33" s="25">
         <v>0.45600000000000002</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H33" s="6">
         <v>2E-3</v>
       </c>
     </row>
@@ -2436,27 +2618,22 @@
       <c r="C34" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3" t="s">
+      <c r="D34" s="19"/>
+      <c r="E34" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="F34" s="23" t="s">
         <v>73</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="H34" s="12" t="s">
+      <c r="H34" s="6" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="E26:H26"/>
     <mergeCell ref="E32:H32"/>
     <mergeCell ref="C31:H31"/>
     <mergeCell ref="E7:H7"/>
@@ -2470,6 +2647,11 @@
     <mergeCell ref="C13:H13"/>
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="C21:H21"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="E26:H26"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2478,141 +2660,143 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{154ABBC5-D243-4709-B8A1-8767AF69777D}">
-  <dimension ref="C4:H35"/>
+  <dimension ref="C4:J34"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="8.7265625" style="1"/>
     <col min="3" max="3" width="33.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.26953125" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.26953125" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" style="26" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6328125" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="1"/>
+    <col min="8" max="8" width="11.6328125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" style="1"/>
+    <col min="10" max="10" width="17.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="C4" s="8" t="s">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C4" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="28"/>
+      <c r="E4" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8" t="s">
+      <c r="F4" s="35"/>
+      <c r="G4" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="3:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="3:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="C6" s="13" t="s">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="5">
         <v>-1.38182</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7" spans="3:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="F6" s="16"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="5">
         <v>-0.32028000000000001</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
     </row>
     <row r="8" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C8" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="F8" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" s="17" t="s">
+      <c r="F8" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="H8" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="C9" s="6" t="s">
+      <c r="H8" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C9" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="3:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="5">
         <v>-1.0415300000000001</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
     </row>
     <row r="11" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C11" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="F11" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="17" t="s">
+      <c r="F11" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2621,58 +2805,58 @@
         <v>41</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="F12" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="17" t="s">
+      <c r="F12" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="H12" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="C13" s="6" t="s">
+      <c r="H12" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C13" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="3:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C14" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="5">
         <v>-1.44032</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
     </row>
     <row r="15" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C15" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="F15" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" s="17" t="s">
+      <c r="F15" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2681,262 +2865,265 @@
         <v>57</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="F16" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="17" t="s">
+      <c r="F16" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="H16" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="C17" s="6" t="s">
+      <c r="H16" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C17" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="3:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="5">
         <v>-0.12797</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="3:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+    </row>
+    <row r="19" spans="3:10" ht="18" x14ac:dyDescent="0.4">
       <c r="C19" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="F19" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19" s="17" t="s">
+      <c r="F19" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="H19" s="25">
+      <c r="H19" s="14">
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="20" spans="3:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:10" ht="18" x14ac:dyDescent="0.4">
       <c r="C20" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D20" s="3"/>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="F20" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20" s="17" t="s">
+      <c r="F20" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="H20" s="25">
+      <c r="H20" s="14">
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="21" spans="3:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="C21" s="6" t="s">
+    <row r="21" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C21" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="3:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="5">
         <v>-0.52066999999999997</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="3:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+    </row>
+    <row r="23" spans="3:10" ht="18" x14ac:dyDescent="0.4">
       <c r="C23" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D23" s="3"/>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="25">
         <v>0.32600000000000001</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="G23" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="H23" s="25">
+      <c r="H23" s="14">
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="24" spans="3:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:10" ht="18" x14ac:dyDescent="0.4">
       <c r="C24" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="23">
         <v>1.6E-2</v>
       </c>
-      <c r="G24" s="17" t="s">
+      <c r="G24" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="H24" s="25">
+      <c r="H24" s="14">
         <v>0.65400000000000003</v>
       </c>
-    </row>
-    <row r="25" spans="3:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="C25" s="6" t="s">
+      <c r="J24" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C25" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="3:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C26" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="5">
         <v>-0.90386</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+    </row>
+    <row r="27" spans="3:10" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C27" s="3" t="s">
         <v>115</v>
       </c>
       <c r="D27" s="3"/>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F27" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G27" s="17" t="s">
+      <c r="F27" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="H27" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="C28" s="6" t="s">
+      <c r="H27" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C28" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="3:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C29" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="5">
         <v>-0.40553</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="3:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+    </row>
+    <row r="30" spans="3:10" ht="18" x14ac:dyDescent="0.4">
       <c r="C30" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D30" s="3"/>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="23">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="G30" s="17" t="s">
+      <c r="G30" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="H30" s="24">
+      <c r="H30" s="13">
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="31" spans="3:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="C31" s="6" t="s">
+    <row r="31" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C31" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="3:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C32" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="5">
         <v>-0.53795000000000004</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
     </row>
     <row r="33" spans="3:8" ht="18" x14ac:dyDescent="0.4">
       <c r="C33" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D33" s="3"/>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F33" s="25">
         <v>0.64900000000000002</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="H33" s="24">
+      <c r="H33" s="13">
         <v>0.69399999999999995</v>
       </c>
     </row>
@@ -2945,22 +3132,29 @@
         <v>51</v>
       </c>
       <c r="D34" s="3"/>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="F34" s="21">
+      <c r="F34" s="25">
         <v>1.9E-2</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="H34" s="24">
+      <c r="H34" s="13">
         <v>0.41399999999999998</v>
       </c>
     </row>
-    <row r="35" spans="3:8" ht="14" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="C9:H9"/>
     <mergeCell ref="C31:H31"/>
     <mergeCell ref="E32:H32"/>
     <mergeCell ref="C17:H17"/>
@@ -2968,17 +3162,1003 @@
     <mergeCell ref="C21:H21"/>
     <mergeCell ref="E22:H22"/>
     <mergeCell ref="C25:H25"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="C9:H9"/>
     <mergeCell ref="E26:H26"/>
     <mergeCell ref="C28:H28"/>
     <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="E14:H14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C9E422-5703-4429-8408-B45AA11C63A5}">
+  <dimension ref="E3:O16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.08984375" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="11.7265625" customWidth="1"/>
+    <col min="11" max="11" width="10.36328125" customWidth="1"/>
+    <col min="12" max="12" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="5:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E3" s="40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="5:15" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E4" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="I4" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="J4" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="K4" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="L4" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="M4" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="N4" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="O4" s="38" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="5:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+    </row>
+    <row r="6" spans="5:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E6" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" s="37">
+        <v>56.99</v>
+      </c>
+      <c r="G6" s="37">
+        <v>30</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="I6" s="37">
+        <v>866</v>
+      </c>
+      <c r="J6" s="37">
+        <v>349</v>
+      </c>
+      <c r="K6" s="37">
+        <v>467.41</v>
+      </c>
+      <c r="L6" s="37">
+        <v>0.73</v>
+      </c>
+      <c r="M6" s="37">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="N6" s="37">
+        <v>34.75</v>
+      </c>
+      <c r="O6" s="37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="5:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E7" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" s="37">
+        <v>34.119999999999997</v>
+      </c>
+      <c r="G7" s="37">
+        <v>19</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="I7" s="37">
+        <v>519</v>
+      </c>
+      <c r="J7" s="37">
+        <v>354</v>
+      </c>
+      <c r="K7" s="37">
+        <v>280.12</v>
+      </c>
+      <c r="L7" s="37">
+        <v>1.28</v>
+      </c>
+      <c r="M7" s="37">
+        <v>68.2</v>
+      </c>
+      <c r="N7" s="37">
+        <v>22.65</v>
+      </c>
+      <c r="O7" s="37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="5:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E8" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" s="37">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="G8" s="37">
+        <v>59</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="I8" s="37">
+        <v>1769</v>
+      </c>
+      <c r="J8" s="37">
+        <v>1085</v>
+      </c>
+      <c r="K8" s="37">
+        <v>954.79</v>
+      </c>
+      <c r="L8" s="37">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="M8" s="37">
+        <v>61.3</v>
+      </c>
+      <c r="N8" s="37">
+        <v>22.41</v>
+      </c>
+      <c r="O8" s="37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="5:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E9" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="F9" s="37">
+        <v>40.840000000000003</v>
+      </c>
+      <c r="G9" s="37">
+        <v>22</v>
+      </c>
+      <c r="H9" s="37">
+        <v>1</v>
+      </c>
+      <c r="I9" s="37">
+        <v>580</v>
+      </c>
+      <c r="J9" s="37">
+        <v>235</v>
+      </c>
+      <c r="K9" s="37">
+        <v>313.05</v>
+      </c>
+      <c r="L9" s="37">
+        <v>0.74</v>
+      </c>
+      <c r="M9" s="37">
+        <v>40.5</v>
+      </c>
+      <c r="N9" s="37">
+        <v>22.03</v>
+      </c>
+      <c r="O9" s="37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="5:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E10" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" s="37">
+        <v>35.14</v>
+      </c>
+      <c r="G10" s="37">
+        <v>19</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="I10" s="37">
+        <v>629</v>
+      </c>
+      <c r="J10" s="37">
+        <v>266</v>
+      </c>
+      <c r="K10" s="37">
+        <v>339.49</v>
+      </c>
+      <c r="L10" s="37">
+        <v>0.78</v>
+      </c>
+      <c r="M10" s="37">
+        <v>42.3</v>
+      </c>
+      <c r="N10" s="37">
+        <v>18.059999999999999</v>
+      </c>
+      <c r="O10" s="37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="5:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E11" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" s="37">
+        <v>27.11</v>
+      </c>
+      <c r="G11" s="37">
+        <v>14</v>
+      </c>
+      <c r="H11" s="37">
+        <v>3</v>
+      </c>
+      <c r="I11" s="37">
+        <v>462</v>
+      </c>
+      <c r="J11" s="37">
+        <v>310</v>
+      </c>
+      <c r="K11" s="37">
+        <v>249.36</v>
+      </c>
+      <c r="L11" s="37">
+        <v>1.25</v>
+      </c>
+      <c r="M11" s="37">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="N11" s="37">
+        <v>17.010000000000002</v>
+      </c>
+      <c r="O11" s="37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="5:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E12" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="F12" s="37">
+        <v>34.83</v>
+      </c>
+      <c r="G12" s="37">
+        <v>9</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="I12" s="37">
+        <v>272</v>
+      </c>
+      <c r="J12" s="37">
+        <v>186</v>
+      </c>
+      <c r="K12" s="37">
+        <v>146.81</v>
+      </c>
+      <c r="L12" s="37">
+        <v>1.27</v>
+      </c>
+      <c r="M12" s="37">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="N12" s="37">
+        <v>11.95</v>
+      </c>
+      <c r="O12" s="37">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="5:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E13" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" s="37">
+        <v>40.26</v>
+      </c>
+      <c r="G13" s="37">
+        <v>12</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="I13" s="37">
+        <v>345</v>
+      </c>
+      <c r="J13" s="37">
+        <v>143</v>
+      </c>
+      <c r="K13" s="37">
+        <v>186.21</v>
+      </c>
+      <c r="L13" s="37">
+        <v>0.76</v>
+      </c>
+      <c r="M13" s="37">
+        <v>41.4</v>
+      </c>
+      <c r="N13" s="37">
+        <v>11.14</v>
+      </c>
+      <c r="O13" s="37">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="14" spans="5:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E14" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="F14" s="37">
+        <v>17.16</v>
+      </c>
+      <c r="G14" s="37">
+        <v>2</v>
+      </c>
+      <c r="H14" s="37">
+        <v>1</v>
+      </c>
+      <c r="I14" s="37">
+        <v>77</v>
+      </c>
+      <c r="J14" s="37">
+        <v>22</v>
+      </c>
+      <c r="K14" s="37">
+        <v>41.56</v>
+      </c>
+      <c r="L14" s="37">
+        <v>0.53</v>
+      </c>
+      <c r="M14" s="37">
+        <v>28.6</v>
+      </c>
+      <c r="N14" s="37">
+        <v>10.23</v>
+      </c>
+      <c r="O14" s="37">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="5:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E15" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="F15" s="37">
+        <v>44.26</v>
+      </c>
+      <c r="G15" s="37">
+        <v>24</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="I15" s="37">
+        <v>646</v>
+      </c>
+      <c r="J15" s="37">
+        <v>403</v>
+      </c>
+      <c r="K15" s="37">
+        <v>348.67</v>
+      </c>
+      <c r="L15" s="37">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="M15" s="37">
+        <v>62.4</v>
+      </c>
+      <c r="N15" s="37">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="O15" s="37">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="5:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E16" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="F16" s="37">
+        <v>59.63</v>
+      </c>
+      <c r="G16" s="37">
+        <v>24</v>
+      </c>
+      <c r="H16" s="37">
+        <v>3</v>
+      </c>
+      <c r="I16" s="37">
+        <v>671</v>
+      </c>
+      <c r="J16" s="37">
+        <v>417</v>
+      </c>
+      <c r="K16" s="37">
+        <v>362.16</v>
+      </c>
+      <c r="L16" s="37">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="M16" s="37">
+        <v>62.1</v>
+      </c>
+      <c r="N16" s="37">
+        <v>9.61</v>
+      </c>
+      <c r="O16" s="37">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="H8" twoDigitTextYear="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA720417-56A9-4B72-B603-C9DD8C736249}">
+  <dimension ref="D2:N16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="7" customWidth="1"/>
+    <col min="5" max="5" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.08984375" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" customWidth="1"/>
+    <col min="10" max="10" width="9.7265625" customWidth="1"/>
+    <col min="11" max="11" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D2" s="40" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="4:14" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+    </row>
+    <row r="5" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D5" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="37">
+        <v>148.47999999999999</v>
+      </c>
+      <c r="F5" s="37">
+        <v>127</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="H5" s="37">
+        <v>3309</v>
+      </c>
+      <c r="I5" s="37">
+        <v>1794</v>
+      </c>
+      <c r="J5" s="37">
+        <v>1286.07</v>
+      </c>
+      <c r="K5" s="37">
+        <v>1.6</v>
+      </c>
+      <c r="L5" s="37">
+        <v>54.2</v>
+      </c>
+      <c r="M5" s="37">
+        <v>213.28</v>
+      </c>
+      <c r="N5" s="37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D6" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="37">
+        <v>139.30000000000001</v>
+      </c>
+      <c r="F6" s="37">
+        <v>63</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="H6" s="37">
+        <v>1751</v>
+      </c>
+      <c r="I6" s="37">
+        <v>325</v>
+      </c>
+      <c r="J6" s="37">
+        <v>680.54</v>
+      </c>
+      <c r="K6" s="37">
+        <v>0.44</v>
+      </c>
+      <c r="L6" s="37">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="M6" s="37">
+        <v>191.19</v>
+      </c>
+      <c r="N6" s="37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D7" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="37">
+        <v>80.22</v>
+      </c>
+      <c r="F7" s="37">
+        <v>48</v>
+      </c>
+      <c r="G7" s="37">
+        <v>2</v>
+      </c>
+      <c r="H7" s="37">
+        <v>1329</v>
+      </c>
+      <c r="I7" s="37">
+        <v>219</v>
+      </c>
+      <c r="J7" s="37">
+        <v>516.53</v>
+      </c>
+      <c r="K7" s="37">
+        <v>0.4</v>
+      </c>
+      <c r="L7" s="37">
+        <v>16.5</v>
+      </c>
+      <c r="M7" s="37">
+        <v>173.62</v>
+      </c>
+      <c r="N7" s="37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D8" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" s="37">
+        <v>52.08</v>
+      </c>
+      <c r="F8" s="37">
+        <v>51</v>
+      </c>
+      <c r="G8" s="37">
+        <v>1</v>
+      </c>
+      <c r="H8" s="37">
+        <v>1344</v>
+      </c>
+      <c r="I8" s="37">
+        <v>778</v>
+      </c>
+      <c r="J8" s="37">
+        <v>522.36</v>
+      </c>
+      <c r="K8" s="37">
+        <v>1.57</v>
+      </c>
+      <c r="L8" s="37">
+        <v>57.9</v>
+      </c>
+      <c r="M8" s="37">
+        <v>110.36</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D9" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9" s="37">
+        <v>58.85</v>
+      </c>
+      <c r="F9" s="37">
+        <v>51</v>
+      </c>
+      <c r="G9" s="37">
+        <v>1</v>
+      </c>
+      <c r="H9" s="37">
+        <v>1332</v>
+      </c>
+      <c r="I9" s="37">
+        <v>757</v>
+      </c>
+      <c r="J9" s="37">
+        <v>517.69000000000005</v>
+      </c>
+      <c r="K9" s="37">
+        <v>1.54</v>
+      </c>
+      <c r="L9" s="37">
+        <v>56.8</v>
+      </c>
+      <c r="M9" s="37">
+        <v>97.52</v>
+      </c>
+      <c r="N9" s="37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D10" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" s="37">
+        <v>37.380000000000003</v>
+      </c>
+      <c r="F10" s="37">
+        <v>21</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="H10" s="37">
+        <v>684</v>
+      </c>
+      <c r="I10" s="37">
+        <v>157</v>
+      </c>
+      <c r="J10" s="37">
+        <v>265.83999999999997</v>
+      </c>
+      <c r="K10" s="37">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L10" s="37">
+        <v>23</v>
+      </c>
+      <c r="M10" s="37">
+        <v>41.17</v>
+      </c>
+      <c r="N10" s="37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D11" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" s="37">
+        <v>23.76</v>
+      </c>
+      <c r="F11" s="37">
+        <v>11</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="H11" s="37">
+        <v>336</v>
+      </c>
+      <c r="I11" s="37">
+        <v>200</v>
+      </c>
+      <c r="J11" s="37">
+        <v>130.59</v>
+      </c>
+      <c r="K11" s="37">
+        <v>1.55</v>
+      </c>
+      <c r="L11" s="37">
+        <v>59.5</v>
+      </c>
+      <c r="M11" s="37">
+        <v>29.94</v>
+      </c>
+      <c r="N11" s="37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D12" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="E12" s="37">
+        <v>60</v>
+      </c>
+      <c r="F12" s="37">
+        <v>34</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="H12" s="37">
+        <v>993</v>
+      </c>
+      <c r="I12" s="37">
+        <v>283</v>
+      </c>
+      <c r="J12" s="37">
+        <v>385.94</v>
+      </c>
+      <c r="K12" s="37">
+        <v>0.72</v>
+      </c>
+      <c r="L12" s="37">
+        <v>28.5</v>
+      </c>
+      <c r="M12" s="37">
+        <v>25.19</v>
+      </c>
+      <c r="N12" s="37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D13" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" s="37">
+        <v>59.08</v>
+      </c>
+      <c r="F13" s="37">
+        <v>30</v>
+      </c>
+      <c r="G13" s="37">
+        <v>2</v>
+      </c>
+      <c r="H13" s="37">
+        <v>801</v>
+      </c>
+      <c r="I13" s="37">
+        <v>219</v>
+      </c>
+      <c r="J13" s="37">
+        <v>311.32</v>
+      </c>
+      <c r="K13" s="37">
+        <v>0.69</v>
+      </c>
+      <c r="L13" s="37">
+        <v>27.3</v>
+      </c>
+      <c r="M13" s="37">
+        <v>24.89</v>
+      </c>
+      <c r="N13" s="37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D14" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="E14" s="37">
+        <v>19.21</v>
+      </c>
+      <c r="F14" s="37">
+        <v>7</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="H14" s="37">
+        <v>227</v>
+      </c>
+      <c r="I14" s="37">
+        <v>137</v>
+      </c>
+      <c r="J14" s="37">
+        <v>88.23</v>
+      </c>
+      <c r="K14" s="37">
+        <v>1.57</v>
+      </c>
+      <c r="L14" s="37">
+        <v>60.4</v>
+      </c>
+      <c r="M14" s="37">
+        <v>21.69</v>
+      </c>
+      <c r="N14" s="37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D15" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="E15" s="37">
+        <v>17.22</v>
+      </c>
+      <c r="F15" s="37">
+        <v>5</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="H15" s="37">
+        <v>132</v>
+      </c>
+      <c r="I15" s="37">
+        <v>20</v>
+      </c>
+      <c r="J15" s="37">
+        <v>51.3</v>
+      </c>
+      <c r="K15" s="37">
+        <v>0.39</v>
+      </c>
+      <c r="L15" s="37">
+        <v>15.2</v>
+      </c>
+      <c r="M15" s="37">
+        <v>18.02</v>
+      </c>
+      <c r="N15" s="37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D16" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="E16" s="37">
+        <v>15.56</v>
+      </c>
+      <c r="F16" s="37">
+        <v>6</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="H16" s="37">
+        <v>187</v>
+      </c>
+      <c r="I16" s="37">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J16" s="37">
+        <v>72.680000000000007</v>
+      </c>
+      <c r="K16" s="37">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L16" s="37">
+        <v>21.4</v>
+      </c>
+      <c r="M16" s="37">
+        <v>13.24</v>
+      </c>
+      <c r="N16" s="37">
+        <v>2E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results_dhs.xlsx
+++ b/results_dhs.xlsx
@@ -8,26 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Biraj\Desktop\gis_dhs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86F1D19-6FDF-4E56-BC79-D706BD46D984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06945ADC-2BD7-44FB-BC7C-C914E3111F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="4" xr2:uid="{EBE00F81-46BE-478C-943D-23887999EF45}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="842" xr2:uid="{EBE00F81-46BE-478C-943D-23887999EF45}"/>
   </bookViews>
   <sheets>
-    <sheet name="tab1edited" sheetId="1" r:id="rId1"/>
-    <sheet name="bmi_model" sheetId="2" r:id="rId2"/>
-    <sheet name="htn_model" sheetId="3" r:id="rId3"/>
-    <sheet name="spatial_cluster_bp" sheetId="4" r:id="rId4"/>
-    <sheet name="spatial_cluster_bmi" sheetId="5" r:id="rId5"/>
+    <sheet name="htn_model" sheetId="7" r:id="rId1"/>
+    <sheet name="tab1edited" sheetId="1" r:id="rId2"/>
+    <sheet name="bmi_model_full" sheetId="2" r:id="rId3"/>
+    <sheet name="bmi_model" sheetId="6" r:id="rId4"/>
+    <sheet name="htn_model_full" sheetId="3" r:id="rId5"/>
+    <sheet name="spatial_cluster_bp" sheetId="4" r:id="rId6"/>
+    <sheet name="spatial_cluster_bmi" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk53060402" localSheetId="3">spatial_cluster_bp!$E$4</definedName>
+    <definedName name="_Hlk53060402" localSheetId="5">spatial_cluster_bp!$E$4</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="166">
   <si>
     <t>S.N</t>
   </si>
@@ -519,6 +521,12 @@
   </si>
   <si>
     <t xml:space="preserve">Table 1. Spatial clusters of cases with high or Normal BMI in Nepal, 2022 </t>
+  </si>
+  <si>
+    <t>Model Intercept</t>
+  </si>
+  <si>
+    <t>Ref</t>
   </si>
 </sst>
 </file>
@@ -899,7 +907,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1092,6 +1100,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1137,7 +1154,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1199,11 +1216,26 @@
     <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1217,20 +1249,8 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1238,8 +1258,18 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1615,11 +1645,382 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B86C31-94F2-4DC5-A776-F7E98319BCFD}">
+  <dimension ref="C4:H34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="8.7265625" style="1"/>
+    <col min="3" max="3" width="33.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6328125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="1"/>
+    <col min="8" max="8" width="17.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C4" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="31"/>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5">
+        <v>-1.38182</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="5">
+        <v>-0.32028000000000001</v>
+      </c>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+    </row>
+    <row r="8" spans="3:6" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="5">
+        <v>-1.0415300000000001</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+    </row>
+    <row r="11" spans="3:6" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C13" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="5">
+        <v>-1.44032</v>
+      </c>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+    </row>
+    <row r="15" spans="3:6" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.12797</v>
+      </c>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+    </row>
+    <row r="19" spans="3:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="C19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="14">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="C20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="14">
+        <v>0.13100000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C21" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="5">
+        <v>-0.52066999999999997</v>
+      </c>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+    </row>
+    <row r="23" spans="3:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="C23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F23" s="14">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="C24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="14">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C25" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C26" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="5">
+        <v>-0.90386</v>
+      </c>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+    </row>
+    <row r="27" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C27" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C28" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="5">
+        <v>-0.40553</v>
+      </c>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+    </row>
+    <row r="30" spans="3:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="C30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F30" s="13">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C31" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="5">
+        <v>-0.53795000000000004</v>
+      </c>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+    </row>
+    <row r="33" spans="3:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="C33" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F33" s="13">
+        <v>0.69399999999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="C34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34" s="13">
+        <v>0.41399999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="E10:F10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7BB526C-0785-4A68-B5A4-00BD80E1E074}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection sqref="A1:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1630,8 +2031,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="28"/>
-      <c r="B1" s="28"/>
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1643,11 +2044,11 @@
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
@@ -1679,11 +2080,11 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
@@ -1729,11 +2130,11 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
@@ -1779,11 +2180,11 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
@@ -1829,11 +2230,11 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
@@ -1865,11 +2266,11 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
@@ -1915,11 +2316,11 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
@@ -1965,11 +2366,11 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
@@ -2001,11 +2402,11 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
@@ -2152,12 +2553,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4894FFF-9B1B-422B-9EBE-04E80485FBF9}">
   <dimension ref="C4:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="C4" sqref="C4:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2173,18 +2574,18 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="29" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="31" t="s">
+      <c r="F4" s="35"/>
+      <c r="G4" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="32"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C5" s="4"/>
@@ -2225,12 +2626,12 @@
       <c r="D7" s="16">
         <v>-0.37877</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
     </row>
     <row r="8" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C8" s="2" t="s">
@@ -2251,14 +2652,14 @@
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
@@ -2267,12 +2668,12 @@
       <c r="D10" s="16">
         <v>-0.50236999999999998</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
     </row>
     <row r="11" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C11" s="3" t="s">
@@ -2311,14 +2712,14 @@
       </c>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C14" s="3" t="s">
@@ -2327,12 +2728,12 @@
       <c r="D14" s="16">
         <v>-1.41639</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
     </row>
     <row r="15" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C15" s="3" t="s">
@@ -2370,14 +2771,14 @@
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C18" s="3" t="s">
@@ -2386,12 +2787,12 @@
       <c r="D18" s="16">
         <v>-0.50973000000000002</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
     </row>
     <row r="19" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C19" s="3" t="s">
@@ -2430,14 +2831,14 @@
       </c>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C22" s="3" t="s">
@@ -2446,12 +2847,12 @@
       <c r="D22" s="16">
         <v>-0.88465000000000005</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
     </row>
     <row r="23" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C23" s="3" t="s">
@@ -2490,14 +2891,14 @@
       </c>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C26" s="3" t="s">
@@ -2506,12 +2907,12 @@
       <c r="D26" s="16">
         <v>-0.71514999999999995</v>
       </c>
-      <c r="E26" s="33" t="s">
+      <c r="E26" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
     </row>
     <row r="27" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C27" s="3" t="s">
@@ -2532,14 +2933,14 @@
       </c>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C29" s="3" t="s">
@@ -2548,12 +2949,12 @@
       <c r="D29" s="16">
         <v>-0.15159</v>
       </c>
-      <c r="E29" s="33" t="s">
+      <c r="E29" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
     </row>
     <row r="30" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C30" s="3" t="s">
@@ -2574,14 +2975,14 @@
       </c>
     </row>
     <row r="31" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
     </row>
     <row r="32" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C32" s="3" t="s">
@@ -2590,12 +2991,12 @@
       <c r="D32" s="16">
         <v>-0.46365000000000001</v>
       </c>
-      <c r="E32" s="33" t="s">
+      <c r="E32" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
     </row>
     <row r="33" spans="3:8" ht="18" x14ac:dyDescent="0.4">
       <c r="C33" s="3" t="s">
@@ -2634,6 +3035,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="E26:H26"/>
     <mergeCell ref="E32:H32"/>
     <mergeCell ref="C31:H31"/>
     <mergeCell ref="E7:H7"/>
@@ -2647,18 +3053,384 @@
     <mergeCell ref="C13:H13"/>
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="C21:H21"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="E26:H26"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19367A53-4E26-4DC3-ABD7-AA0E1EE3A14C}">
+  <dimension ref="C4:F34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="8.7265625" style="1"/>
+    <col min="3" max="3" width="33.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" style="42" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6328125" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C4" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C5" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="41">
+        <v>-3.2690299999999999</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="44"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="44"/>
+      <c r="E7" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="F7" s="33"/>
+    </row>
+    <row r="8" spans="3:6" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="44"/>
+      <c r="E8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="43"/>
+      <c r="E10" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="F10" s="33"/>
+    </row>
+    <row r="11" spans="3:6" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="43"/>
+      <c r="E11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="43"/>
+      <c r="E12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C13" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="43"/>
+      <c r="E14" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="33"/>
+    </row>
+    <row r="15" spans="3:6" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="43"/>
+      <c r="E15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="43"/>
+      <c r="E16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C17" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="43"/>
+      <c r="E18" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="F18" s="33"/>
+    </row>
+    <row r="19" spans="3:6" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="43"/>
+      <c r="E19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="43"/>
+      <c r="E20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C21" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="43"/>
+      <c r="E22" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="F22" s="33"/>
+    </row>
+    <row r="23" spans="3:6" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="43"/>
+      <c r="E23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="43"/>
+      <c r="E24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C25" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C26" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="43"/>
+      <c r="E26" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="F26" s="33"/>
+    </row>
+    <row r="27" spans="3:6" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C27" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="43"/>
+      <c r="E27" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C28" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="43"/>
+      <c r="E29" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="F29" s="33"/>
+    </row>
+    <row r="30" spans="3:6" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="43"/>
+      <c r="E30" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="8">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C31" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="44"/>
+      <c r="E32" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="F32" s="33"/>
+    </row>
+    <row r="33" spans="3:6" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C33" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="44"/>
+      <c r="E33" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F33" s="8">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="44"/>
+      <c r="E34" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="C4:F4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{154ABBC5-D243-4709-B8A1-8767AF69777D}">
   <dimension ref="C4:J34"/>
   <sheetViews>
@@ -2681,18 +3453,18 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="35" t="s">
+      <c r="D4" s="31"/>
+      <c r="E4" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="28" t="s">
+      <c r="F4" s="38"/>
+      <c r="G4" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="28"/>
+      <c r="H4" s="31"/>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C5" s="4"/>
@@ -2733,12 +3505,12 @@
       <c r="D7" s="5">
         <v>-0.32028000000000001</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
     </row>
     <row r="8" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C8" s="2" t="s">
@@ -2759,14 +3531,14 @@
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
@@ -2775,12 +3547,12 @@
       <c r="D10" s="5">
         <v>-1.0415300000000001</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
     </row>
     <row r="11" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C11" s="3" t="s">
@@ -2819,14 +3591,14 @@
       </c>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C14" s="3" t="s">
@@ -2835,12 +3607,12 @@
       <c r="D14" s="5">
         <v>-1.44032</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
     </row>
     <row r="15" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C15" s="3" t="s">
@@ -2879,14 +3651,14 @@
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C18" s="3" t="s">
@@ -2895,12 +3667,12 @@
       <c r="D18" s="5">
         <v>-0.12797</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
     </row>
     <row r="19" spans="3:10" ht="18" x14ac:dyDescent="0.4">
       <c r="C19" s="3" t="s">
@@ -2939,14 +3711,14 @@
       </c>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C22" s="3" t="s">
@@ -2955,12 +3727,12 @@
       <c r="D22" s="5">
         <v>-0.52066999999999997</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
     </row>
     <row r="23" spans="3:10" ht="18" x14ac:dyDescent="0.4">
       <c r="C23" s="3" t="s">
@@ -3002,14 +3774,14 @@
       </c>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C26" s="3" t="s">
@@ -3018,12 +3790,12 @@
       <c r="D26" s="5">
         <v>-0.90386</v>
       </c>
-      <c r="E26" s="33" t="s">
+      <c r="E26" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
     </row>
     <row r="27" spans="3:10" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C27" s="3" t="s">
@@ -3044,14 +3816,14 @@
       </c>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C29" s="3" t="s">
@@ -3060,12 +3832,12 @@
       <c r="D29" s="5">
         <v>-0.40553</v>
       </c>
-      <c r="E29" s="33" t="s">
+      <c r="E29" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
     </row>
     <row r="30" spans="3:10" ht="18" x14ac:dyDescent="0.4">
       <c r="C30" s="3" t="s">
@@ -3086,14 +3858,14 @@
       </c>
     </row>
     <row r="31" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
     </row>
     <row r="32" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C32" s="3" t="s">
@@ -3102,12 +3874,12 @@
       <c r="D32" s="5">
         <v>-0.53795000000000004</v>
       </c>
-      <c r="E32" s="33" t="s">
+      <c r="E32" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
     </row>
     <row r="33" spans="3:8" ht="18" x14ac:dyDescent="0.4">
       <c r="C33" s="3" t="s">
@@ -3147,14 +3919,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="C9:H9"/>
     <mergeCell ref="C31:H31"/>
     <mergeCell ref="E32:H32"/>
     <mergeCell ref="C17:H17"/>
@@ -3165,17 +3929,25 @@
     <mergeCell ref="E26:H26"/>
     <mergeCell ref="C28:H28"/>
     <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="C9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C9E422-5703-4429-8408-B45AA11C63A5}">
   <dimension ref="E3:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3193,456 +3965,456 @@
   </cols>
   <sheetData>
     <row r="3" spans="5:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="29" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="4" spans="5:15" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="J4" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="K4" s="38" t="s">
+      <c r="K4" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="L4" s="38" t="s">
+      <c r="L4" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="M4" s="38" t="s">
+      <c r="M4" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="N4" s="38" t="s">
+      <c r="N4" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="O4" s="38" t="s">
+      <c r="O4" s="39" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="5" spans="5:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
     </row>
     <row r="6" spans="5:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="28">
         <v>56.99</v>
       </c>
-      <c r="G6" s="37">
+      <c r="G6" s="28">
         <v>30</v>
       </c>
-      <c r="H6" s="37" t="s">
+      <c r="H6" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="I6" s="37">
+      <c r="I6" s="28">
         <v>866</v>
       </c>
-      <c r="J6" s="37">
+      <c r="J6" s="28">
         <v>349</v>
       </c>
-      <c r="K6" s="37">
+      <c r="K6" s="28">
         <v>467.41</v>
       </c>
-      <c r="L6" s="37">
+      <c r="L6" s="28">
         <v>0.73</v>
       </c>
-      <c r="M6" s="37">
+      <c r="M6" s="28">
         <v>40.299999999999997</v>
       </c>
-      <c r="N6" s="37">
+      <c r="N6" s="28">
         <v>34.75</v>
       </c>
-      <c r="O6" s="37" t="s">
+      <c r="O6" s="28" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7" spans="5:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="28">
         <v>34.119999999999997</v>
       </c>
-      <c r="G7" s="37">
+      <c r="G7" s="28">
         <v>19</v>
       </c>
-      <c r="H7" s="37" t="s">
+      <c r="H7" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="I7" s="37">
+      <c r="I7" s="28">
         <v>519</v>
       </c>
-      <c r="J7" s="37">
+      <c r="J7" s="28">
         <v>354</v>
       </c>
-      <c r="K7" s="37">
+      <c r="K7" s="28">
         <v>280.12</v>
       </c>
-      <c r="L7" s="37">
+      <c r="L7" s="28">
         <v>1.28</v>
       </c>
-      <c r="M7" s="37">
+      <c r="M7" s="28">
         <v>68.2</v>
       </c>
-      <c r="N7" s="37">
+      <c r="N7" s="28">
         <v>22.65</v>
       </c>
-      <c r="O7" s="37" t="s">
+      <c r="O7" s="28" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="8" spans="5:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="28">
         <v>67.900000000000006</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="28">
         <v>59</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="H8" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="28">
         <v>1769</v>
       </c>
-      <c r="J8" s="37">
+      <c r="J8" s="28">
         <v>1085</v>
       </c>
-      <c r="K8" s="37">
+      <c r="K8" s="28">
         <v>954.79</v>
       </c>
-      <c r="L8" s="37">
+      <c r="L8" s="28">
         <v>1.1599999999999999</v>
       </c>
-      <c r="M8" s="37">
+      <c r="M8" s="28">
         <v>61.3</v>
       </c>
-      <c r="N8" s="37">
+      <c r="N8" s="28">
         <v>22.41</v>
       </c>
-      <c r="O8" s="37" t="s">
+      <c r="O8" s="28" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="9" spans="5:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="28">
         <v>40.840000000000003</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="28">
         <v>22</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="28">
         <v>1</v>
       </c>
-      <c r="I9" s="37">
+      <c r="I9" s="28">
         <v>580</v>
       </c>
-      <c r="J9" s="37">
+      <c r="J9" s="28">
         <v>235</v>
       </c>
-      <c r="K9" s="37">
+      <c r="K9" s="28">
         <v>313.05</v>
       </c>
-      <c r="L9" s="37">
+      <c r="L9" s="28">
         <v>0.74</v>
       </c>
-      <c r="M9" s="37">
+      <c r="M9" s="28">
         <v>40.5</v>
       </c>
-      <c r="N9" s="37">
+      <c r="N9" s="28">
         <v>22.03</v>
       </c>
-      <c r="O9" s="37" t="s">
+      <c r="O9" s="28" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="10" spans="5:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="28">
         <v>35.14</v>
       </c>
-      <c r="G10" s="37">
+      <c r="G10" s="28">
         <v>19</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="I10" s="37">
+      <c r="I10" s="28">
         <v>629</v>
       </c>
-      <c r="J10" s="37">
+      <c r="J10" s="28">
         <v>266</v>
       </c>
-      <c r="K10" s="37">
+      <c r="K10" s="28">
         <v>339.49</v>
       </c>
-      <c r="L10" s="37">
+      <c r="L10" s="28">
         <v>0.78</v>
       </c>
-      <c r="M10" s="37">
+      <c r="M10" s="28">
         <v>42.3</v>
       </c>
-      <c r="N10" s="37">
+      <c r="N10" s="28">
         <v>18.059999999999999</v>
       </c>
-      <c r="O10" s="37" t="s">
+      <c r="O10" s="28" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11" spans="5:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F11" s="28">
         <v>27.11</v>
       </c>
-      <c r="G11" s="37">
+      <c r="G11" s="28">
         <v>14</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="28">
         <v>3</v>
       </c>
-      <c r="I11" s="37">
+      <c r="I11" s="28">
         <v>462</v>
       </c>
-      <c r="J11" s="37">
+      <c r="J11" s="28">
         <v>310</v>
       </c>
-      <c r="K11" s="37">
+      <c r="K11" s="28">
         <v>249.36</v>
       </c>
-      <c r="L11" s="37">
+      <c r="L11" s="28">
         <v>1.25</v>
       </c>
-      <c r="M11" s="37">
+      <c r="M11" s="28">
         <v>67.099999999999994</v>
       </c>
-      <c r="N11" s="37">
+      <c r="N11" s="28">
         <v>17.010000000000002</v>
       </c>
-      <c r="O11" s="37" t="s">
+      <c r="O11" s="28" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" spans="5:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="F12" s="37">
+      <c r="F12" s="28">
         <v>34.83</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G12" s="28">
         <v>9</v>
       </c>
-      <c r="H12" s="37" t="s">
+      <c r="H12" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="I12" s="37">
+      <c r="I12" s="28">
         <v>272</v>
       </c>
-      <c r="J12" s="37">
+      <c r="J12" s="28">
         <v>186</v>
       </c>
-      <c r="K12" s="37">
+      <c r="K12" s="28">
         <v>146.81</v>
       </c>
-      <c r="L12" s="37">
+      <c r="L12" s="28">
         <v>1.27</v>
       </c>
-      <c r="M12" s="37">
+      <c r="M12" s="28">
         <v>68.400000000000006</v>
       </c>
-      <c r="N12" s="37">
+      <c r="N12" s="28">
         <v>11.95</v>
       </c>
-      <c r="O12" s="37">
+      <c r="O12" s="28">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="13" spans="5:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F13" s="28">
         <v>40.26</v>
       </c>
-      <c r="G13" s="37">
+      <c r="G13" s="28">
         <v>12</v>
       </c>
-      <c r="H13" s="37" t="s">
+      <c r="H13" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="I13" s="37">
+      <c r="I13" s="28">
         <v>345</v>
       </c>
-      <c r="J13" s="37">
+      <c r="J13" s="28">
         <v>143</v>
       </c>
-      <c r="K13" s="37">
+      <c r="K13" s="28">
         <v>186.21</v>
       </c>
-      <c r="L13" s="37">
+      <c r="L13" s="28">
         <v>0.76</v>
       </c>
-      <c r="M13" s="37">
+      <c r="M13" s="28">
         <v>41.4</v>
       </c>
-      <c r="N13" s="37">
+      <c r="N13" s="28">
         <v>11.14</v>
       </c>
-      <c r="O13" s="37">
+      <c r="O13" s="28">
         <v>0.01</v>
       </c>
     </row>
     <row r="14" spans="5:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F14" s="28">
         <v>17.16</v>
       </c>
-      <c r="G14" s="37">
+      <c r="G14" s="28">
         <v>2</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H14" s="28">
         <v>1</v>
       </c>
-      <c r="I14" s="37">
+      <c r="I14" s="28">
         <v>77</v>
       </c>
-      <c r="J14" s="37">
+      <c r="J14" s="28">
         <v>22</v>
       </c>
-      <c r="K14" s="37">
+      <c r="K14" s="28">
         <v>41.56</v>
       </c>
-      <c r="L14" s="37">
+      <c r="L14" s="28">
         <v>0.53</v>
       </c>
-      <c r="M14" s="37">
+      <c r="M14" s="28">
         <v>28.6</v>
       </c>
-      <c r="N14" s="37">
+      <c r="N14" s="28">
         <v>10.23</v>
       </c>
-      <c r="O14" s="37">
+      <c r="O14" s="28">
         <v>2.3E-2</v>
       </c>
     </row>
     <row r="15" spans="5:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="28">
         <v>44.26</v>
       </c>
-      <c r="G15" s="37">
+      <c r="G15" s="28">
         <v>24</v>
       </c>
-      <c r="H15" s="37" t="s">
+      <c r="H15" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="I15" s="37">
+      <c r="I15" s="28">
         <v>646</v>
       </c>
-      <c r="J15" s="37">
+      <c r="J15" s="28">
         <v>403</v>
       </c>
-      <c r="K15" s="37">
+      <c r="K15" s="28">
         <v>348.67</v>
       </c>
-      <c r="L15" s="37">
+      <c r="L15" s="28">
         <v>1.1599999999999999</v>
       </c>
-      <c r="M15" s="37">
+      <c r="M15" s="28">
         <v>62.4</v>
       </c>
-      <c r="N15" s="37">
+      <c r="N15" s="28">
         <v>9.7799999999999994</v>
       </c>
-      <c r="O15" s="37">
+      <c r="O15" s="28">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="16" spans="5:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F16" s="28">
         <v>59.63</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G16" s="28">
         <v>24</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H16" s="28">
         <v>3</v>
       </c>
-      <c r="I16" s="37">
+      <c r="I16" s="28">
         <v>671</v>
       </c>
-      <c r="J16" s="37">
+      <c r="J16" s="28">
         <v>417</v>
       </c>
-      <c r="K16" s="37">
+      <c r="K16" s="28">
         <v>362.16</v>
       </c>
-      <c r="L16" s="37">
+      <c r="L16" s="28">
         <v>1.1599999999999999</v>
       </c>
-      <c r="M16" s="37">
+      <c r="M16" s="28">
         <v>62.1</v>
       </c>
-      <c r="N16" s="37">
+      <c r="N16" s="28">
         <v>9.61</v>
       </c>
-      <c r="O16" s="37">
+      <c r="O16" s="28">
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -3651,20 +4423,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA720417-56A9-4B72-B603-C9DD8C736249}">
   <dimension ref="D2:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" customWidth="1"/>
     <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7265625" customWidth="1"/>
     <col min="8" max="8" width="11.08984375" customWidth="1"/>
     <col min="9" max="9" width="10.54296875" customWidth="1"/>
     <col min="10" max="10" width="9.7265625" customWidth="1"/>
@@ -3674,491 +4446,502 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="45" t="s">
         <v>163</v>
       </c>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
     </row>
     <row r="3" spans="4:14" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="K3" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="L3" s="38" t="s">
+      <c r="L3" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="M3" s="38" t="s">
+      <c r="M3" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="N3" s="38" t="s">
+      <c r="N3" s="39" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="4" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
     </row>
     <row r="5" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="28">
         <v>148.47999999999999</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="28">
         <v>127</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="H5" s="37">
+      <c r="H5" s="28">
         <v>3309</v>
       </c>
-      <c r="I5" s="37">
+      <c r="I5" s="28">
         <v>1794</v>
       </c>
-      <c r="J5" s="37">
+      <c r="J5" s="28">
         <v>1286.07</v>
       </c>
-      <c r="K5" s="37">
+      <c r="K5" s="28">
         <v>1.6</v>
       </c>
-      <c r="L5" s="37">
+      <c r="L5" s="28">
         <v>54.2</v>
       </c>
-      <c r="M5" s="37">
+      <c r="M5" s="28">
         <v>213.28</v>
       </c>
-      <c r="N5" s="37" t="s">
+      <c r="N5" s="28" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="28">
         <v>139.30000000000001</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="28">
         <v>63</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="H6" s="37">
+      <c r="H6" s="28">
         <v>1751</v>
       </c>
-      <c r="I6" s="37">
+      <c r="I6" s="28">
         <v>325</v>
       </c>
-      <c r="J6" s="37">
+      <c r="J6" s="28">
         <v>680.54</v>
       </c>
-      <c r="K6" s="37">
+      <c r="K6" s="28">
         <v>0.44</v>
       </c>
-      <c r="L6" s="37">
+      <c r="L6" s="28">
         <v>18.600000000000001</v>
       </c>
-      <c r="M6" s="37">
+      <c r="M6" s="28">
         <v>191.19</v>
       </c>
-      <c r="N6" s="37" t="s">
+      <c r="N6" s="28" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="28">
         <v>80.22</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="28">
         <v>48</v>
       </c>
-      <c r="G7" s="37">
+      <c r="G7" s="28">
         <v>2</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="28">
         <v>1329</v>
       </c>
-      <c r="I7" s="37">
+      <c r="I7" s="28">
         <v>219</v>
       </c>
-      <c r="J7" s="37">
+      <c r="J7" s="28">
         <v>516.53</v>
       </c>
-      <c r="K7" s="37">
+      <c r="K7" s="28">
         <v>0.4</v>
       </c>
-      <c r="L7" s="37">
+      <c r="L7" s="28">
         <v>16.5</v>
       </c>
-      <c r="M7" s="37">
+      <c r="M7" s="28">
         <v>173.62</v>
       </c>
-      <c r="N7" s="37" t="s">
+      <c r="N7" s="28" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="8" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="28">
         <v>52.08</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="28">
         <v>51</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="28">
         <v>1</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="28">
         <v>1344</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="28">
         <v>778</v>
       </c>
-      <c r="J8" s="37">
+      <c r="J8" s="28">
         <v>522.36</v>
       </c>
-      <c r="K8" s="37">
+      <c r="K8" s="28">
         <v>1.57</v>
       </c>
-      <c r="L8" s="37">
+      <c r="L8" s="28">
         <v>57.9</v>
       </c>
-      <c r="M8" s="37">
+      <c r="M8" s="28">
         <v>110.36</v>
       </c>
-      <c r="N8" s="37" t="s">
+      <c r="N8" s="28" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="9" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="28">
         <v>58.85</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="28">
         <v>51</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="28">
         <v>1</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="28">
         <v>1332</v>
       </c>
-      <c r="I9" s="37">
+      <c r="I9" s="28">
         <v>757</v>
       </c>
-      <c r="J9" s="37">
+      <c r="J9" s="28">
         <v>517.69000000000005</v>
       </c>
-      <c r="K9" s="37">
+      <c r="K9" s="28">
         <v>1.54</v>
       </c>
-      <c r="L9" s="37">
+      <c r="L9" s="28">
         <v>56.8</v>
       </c>
-      <c r="M9" s="37">
+      <c r="M9" s="28">
         <v>97.52</v>
       </c>
-      <c r="N9" s="37" t="s">
+      <c r="N9" s="28" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="10" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="28">
         <v>37.380000000000003</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="28">
         <v>21</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="28">
         <v>684</v>
       </c>
-      <c r="I10" s="37">
+      <c r="I10" s="28">
         <v>157</v>
       </c>
-      <c r="J10" s="37">
+      <c r="J10" s="28">
         <v>265.83999999999997</v>
       </c>
-      <c r="K10" s="37">
+      <c r="K10" s="28">
         <v>0.57999999999999996</v>
       </c>
-      <c r="L10" s="37">
+      <c r="L10" s="28">
         <v>23</v>
       </c>
-      <c r="M10" s="37">
+      <c r="M10" s="28">
         <v>41.17</v>
       </c>
-      <c r="N10" s="37" t="s">
+      <c r="N10" s="28" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E11" s="28">
         <v>23.76</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F11" s="28">
         <v>11</v>
       </c>
-      <c r="G11" s="37" t="s">
+      <c r="G11" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="28">
         <v>336</v>
       </c>
-      <c r="I11" s="37">
+      <c r="I11" s="28">
         <v>200</v>
       </c>
-      <c r="J11" s="37">
+      <c r="J11" s="28">
         <v>130.59</v>
       </c>
-      <c r="K11" s="37">
+      <c r="K11" s="28">
         <v>1.55</v>
       </c>
-      <c r="L11" s="37">
+      <c r="L11" s="28">
         <v>59.5</v>
       </c>
-      <c r="M11" s="37">
+      <c r="M11" s="28">
         <v>29.94</v>
       </c>
-      <c r="N11" s="37" t="s">
+      <c r="N11" s="28" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E12" s="28">
         <v>60</v>
       </c>
-      <c r="F12" s="37">
+      <c r="F12" s="28">
         <v>34</v>
       </c>
-      <c r="G12" s="37" t="s">
+      <c r="G12" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="28">
         <v>993</v>
       </c>
-      <c r="I12" s="37">
+      <c r="I12" s="28">
         <v>283</v>
       </c>
-      <c r="J12" s="37">
+      <c r="J12" s="28">
         <v>385.94</v>
       </c>
-      <c r="K12" s="37">
+      <c r="K12" s="28">
         <v>0.72</v>
       </c>
-      <c r="L12" s="37">
+      <c r="L12" s="28">
         <v>28.5</v>
       </c>
-      <c r="M12" s="37">
+      <c r="M12" s="28">
         <v>25.19</v>
       </c>
-      <c r="N12" s="37" t="s">
+      <c r="N12" s="28" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="13" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="E13" s="37">
+      <c r="E13" s="28">
         <v>59.08</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F13" s="28">
         <v>30</v>
       </c>
-      <c r="G13" s="37">
+      <c r="G13" s="28">
         <v>2</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="28">
         <v>801</v>
       </c>
-      <c r="I13" s="37">
+      <c r="I13" s="28">
         <v>219</v>
       </c>
-      <c r="J13" s="37">
+      <c r="J13" s="28">
         <v>311.32</v>
       </c>
-      <c r="K13" s="37">
+      <c r="K13" s="28">
         <v>0.69</v>
       </c>
-      <c r="L13" s="37">
+      <c r="L13" s="28">
         <v>27.3</v>
       </c>
-      <c r="M13" s="37">
+      <c r="M13" s="28">
         <v>24.89</v>
       </c>
-      <c r="N13" s="37" t="s">
+      <c r="N13" s="28" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="14" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="E14" s="37">
+      <c r="E14" s="28">
         <v>19.21</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F14" s="28">
         <v>7</v>
       </c>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H14" s="28">
         <v>227</v>
       </c>
-      <c r="I14" s="37">
+      <c r="I14" s="28">
         <v>137</v>
       </c>
-      <c r="J14" s="37">
+      <c r="J14" s="28">
         <v>88.23</v>
       </c>
-      <c r="K14" s="37">
+      <c r="K14" s="28">
         <v>1.57</v>
       </c>
-      <c r="L14" s="37">
+      <c r="L14" s="28">
         <v>60.4</v>
       </c>
-      <c r="M14" s="37">
+      <c r="M14" s="28">
         <v>21.69</v>
       </c>
-      <c r="N14" s="37" t="s">
+      <c r="N14" s="28" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="28">
         <v>17.22</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="28">
         <v>5</v>
       </c>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="28">
         <v>132</v>
       </c>
-      <c r="I15" s="37">
+      <c r="I15" s="28">
         <v>20</v>
       </c>
-      <c r="J15" s="37">
+      <c r="J15" s="28">
         <v>51.3</v>
       </c>
-      <c r="K15" s="37">
+      <c r="K15" s="28">
         <v>0.39</v>
       </c>
-      <c r="L15" s="37">
+      <c r="L15" s="28">
         <v>15.2</v>
       </c>
-      <c r="M15" s="37">
+      <c r="M15" s="28">
         <v>18.02</v>
       </c>
-      <c r="N15" s="37" t="s">
+      <c r="N15" s="28" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="16" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="E16" s="37">
+      <c r="E16" s="28">
         <v>15.56</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F16" s="28">
         <v>6</v>
       </c>
-      <c r="G16" s="37" t="s">
+      <c r="G16" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H16" s="28">
         <v>187</v>
       </c>
-      <c r="I16" s="37">
+      <c r="I16" s="28">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J16" s="37">
+      <c r="J16" s="28">
         <v>72.680000000000007</v>
       </c>
-      <c r="K16" s="37">
+      <c r="K16" s="28">
         <v>0.55000000000000004</v>
       </c>
-      <c r="L16" s="37">
+      <c r="L16" s="28">
         <v>21.4</v>
       </c>
-      <c r="M16" s="37">
+      <c r="M16" s="28">
         <v>13.24</v>
       </c>
-      <c r="N16" s="37">
+      <c r="N16" s="28">
         <v>2E-3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D2:N2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:N4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
